--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_NhatQuang.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="73">
   <si>
     <t>STT</t>
   </si>
@@ -262,6 +262,15 @@
   </si>
   <si>
     <t>Thể</t>
+  </si>
+  <si>
+    <t>TG102LE-4G(STM)</t>
+  </si>
+  <si>
+    <t>112.078.011.007,13368</t>
+  </si>
+  <si>
+    <t>Thay MCU</t>
   </si>
 </sst>
 </file>
@@ -482,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -713,6 +722,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -731,31 +764,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1097,39 +1109,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1174,58 +1186,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1250,23 +1262,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1292,7 +1304,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1323,7 +1335,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1352,7 +1364,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1381,7 +1393,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1410,7 +1422,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1439,7 +1451,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1468,7 +1480,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1499,7 +1511,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1528,7 +1540,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1557,7 +1569,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1586,7 +1598,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3302,13 +3314,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3320,6 +3325,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3363,39 +3375,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3440,58 +3452,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3516,23 +3528,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3558,7 +3570,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3589,7 +3601,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3618,7 +3630,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3647,7 +3659,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3676,7 +3688,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3705,7 +3717,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3734,7 +3746,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3765,7 +3777,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3794,7 +3806,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3823,7 +3835,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3852,7 +3864,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5568,6 +5580,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5579,13 +5598,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5629,39 +5641,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5706,58 +5718,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5782,23 +5794,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5824,7 +5836,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5855,7 +5867,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5884,7 +5896,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5913,7 +5925,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5942,7 +5954,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5971,7 +5983,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6000,7 +6012,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6031,7 +6043,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6060,7 +6072,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6089,7 +6101,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6118,7 +6130,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7834,6 +7846,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7845,13 +7864,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7895,39 +7907,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7972,58 +7984,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8048,23 +8060,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8090,7 +8102,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8121,7 +8133,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8150,7 +8162,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8179,7 +8191,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8208,7 +8220,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8237,7 +8249,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8266,7 +8278,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8297,7 +8309,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8326,7 +8338,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8355,7 +8367,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8384,7 +8396,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10100,6 +10112,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10111,13 +10130,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10128,8 +10140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10161,41 +10173,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10240,58 +10252,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10316,23 +10328,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10382,7 +10394,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10394,26 +10406,50 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
+      <c r="B7" s="61">
+        <v>44894</v>
+      </c>
+      <c r="C7" s="61">
+        <v>44895</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="93">
+        <v>862205051176131</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
+      <c r="I7" s="63" t="s">
+        <v>71</v>
+      </c>
       <c r="J7" s="64"/>
-      <c r="K7" s="65"/>
+      <c r="K7" s="65" t="s">
+        <v>61</v>
+      </c>
       <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
+      <c r="M7" s="66" t="s">
+        <v>72</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="67"/>
+      <c r="O7" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="67" t="s">
+        <v>20</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10442,7 +10478,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10471,7 +10507,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10500,7 +10536,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10529,7 +10565,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10558,7 +10594,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10589,7 +10625,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10618,7 +10654,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10647,7 +10683,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10676,7 +10712,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10826,7 +10862,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -10975,7 +11011,7 @@
       </c>
       <c r="V26" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="13"/>
     </row>
@@ -11327,7 +11363,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -12392,6 +12428,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12403,13 +12446,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12453,39 +12489,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12530,58 +12566,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12606,23 +12642,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12648,7 +12684,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12679,7 +12715,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12708,7 +12744,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12737,7 +12773,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12766,7 +12802,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12795,7 +12831,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12824,7 +12860,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12855,7 +12891,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12884,7 +12920,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12913,7 +12949,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12942,7 +12978,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14658,6 +14694,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14669,13 +14712,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14719,39 +14755,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14796,58 +14832,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14872,23 +14908,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14914,7 +14950,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14945,7 +14981,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14974,7 +15010,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15003,7 +15039,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15032,7 +15068,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15061,7 +15097,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15090,7 +15126,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15121,7 +15157,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15150,7 +15186,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15179,7 +15215,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15208,7 +15244,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16924,6 +16960,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16935,13 +16978,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16985,39 +17021,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17062,58 +17098,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17138,23 +17174,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17180,7 +17216,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17211,7 +17247,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17240,7 +17276,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17269,7 +17305,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17298,7 +17334,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17327,7 +17363,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17356,7 +17392,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17387,7 +17423,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17416,7 +17452,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17445,7 +17481,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17474,7 +17510,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19190,6 +19226,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19201,13 +19244,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19251,39 +19287,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19328,58 +19364,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19404,23 +19440,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="86"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19446,7 +19482,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19477,7 +19513,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19506,7 +19542,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19535,7 +19571,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19564,7 +19600,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19593,7 +19629,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19622,7 +19658,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19653,7 +19689,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19682,7 +19718,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19711,7 +19747,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19740,7 +19776,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -20971,13 +21007,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -20989,6 +21018,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_NhatQuang.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="74">
   <si>
     <t>STT</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>Thay MCU</t>
+  </si>
+  <si>
+    <t>Le4.1.02.AOO06.220322</t>
   </si>
 </sst>
 </file>
@@ -722,29 +725,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -764,10 +746,31 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1109,39 +1112,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1186,58 +1189,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1262,23 +1265,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1304,7 +1307,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1335,7 +1338,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1364,7 +1367,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1393,7 +1396,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1422,7 +1425,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1451,7 +1454,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1480,7 +1483,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1511,7 +1514,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1540,7 +1543,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1569,7 +1572,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1598,7 +1601,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3314,6 +3317,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3325,13 +3335,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3375,39 +3378,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3452,58 +3455,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3528,23 +3531,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3570,7 +3573,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3601,7 +3604,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3630,7 +3633,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3659,7 +3662,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3688,7 +3691,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3717,7 +3720,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3746,7 +3749,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3777,7 +3780,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3806,7 +3809,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3835,7 +3838,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3864,7 +3867,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5580,13 +5583,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5598,6 +5594,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5641,39 +5644,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5718,58 +5721,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5794,23 +5797,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5836,7 +5839,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5867,7 +5870,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5896,7 +5899,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5925,7 +5928,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5954,7 +5957,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5983,7 +5986,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6012,7 +6015,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6043,7 +6046,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6072,7 +6075,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6101,7 +6104,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6130,7 +6133,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7846,13 +7849,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7864,6 +7860,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7907,39 +7910,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7984,58 +7987,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8060,23 +8063,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8102,7 +8105,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8133,7 +8136,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8162,7 +8165,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8191,7 +8194,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8220,7 +8223,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8249,7 +8252,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8278,7 +8281,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8309,7 +8312,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8338,7 +8341,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8367,7 +8370,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8396,7 +8399,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10112,13 +10115,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10130,6 +10126,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10140,8 +10143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10173,41 +10176,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10252,58 +10255,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10328,23 +10331,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10394,7 +10397,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10415,7 +10418,7 @@
       <c r="D7" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="93">
+      <c r="E7" s="78">
         <v>862205051176131</v>
       </c>
       <c r="F7" s="37"/>
@@ -10430,7 +10433,9 @@
       <c r="K7" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="66"/>
+      <c r="L7" s="66" t="s">
+        <v>73</v>
+      </c>
       <c r="M7" s="66" t="s">
         <v>72</v>
       </c>
@@ -10449,7 +10454,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10478,7 +10483,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10507,7 +10512,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10536,7 +10541,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10565,7 +10570,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10594,7 +10599,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10625,7 +10630,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10654,7 +10659,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10683,7 +10688,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10712,7 +10717,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12428,13 +12433,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12446,6 +12444,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12489,39 +12494,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12566,58 +12571,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12642,23 +12647,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12684,7 +12689,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12715,7 +12720,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12744,7 +12749,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12773,7 +12778,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12802,7 +12807,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12831,7 +12836,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12860,7 +12865,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12891,7 +12896,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12920,7 +12925,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12949,7 +12954,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12978,7 +12983,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14694,13 +14699,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14712,6 +14710,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14755,39 +14760,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14832,58 +14837,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14908,23 +14913,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14950,7 +14955,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14981,7 +14986,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15010,7 +15015,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15039,7 +15044,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15068,7 +15073,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15097,7 +15102,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15126,7 +15131,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15157,7 +15162,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15186,7 +15191,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15215,7 +15220,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15244,7 +15249,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16960,13 +16965,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16978,6 +16976,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17021,39 +17026,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17098,58 +17103,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17174,23 +17179,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17216,7 +17221,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17247,7 +17252,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17276,7 +17281,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17305,7 +17310,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17334,7 +17339,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17363,7 +17368,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17392,7 +17397,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17423,7 +17428,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17452,7 +17457,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17481,7 +17486,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17510,7 +17515,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19226,13 +19231,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19244,6 +19242,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19287,39 +19292,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19364,58 +19369,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19440,23 +19445,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19482,7 +19487,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19513,7 +19518,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19542,7 +19547,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19571,7 +19576,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19600,7 +19605,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19629,7 +19634,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19658,7 +19663,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19689,7 +19694,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19718,7 +19723,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19747,7 +19752,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19776,7 +19781,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21007,6 +21012,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21018,13 +21030,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
